--- a/categoryNumber.xlsx
+++ b/categoryNumber.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82103\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000UbicFinal\Kurly_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858B70C4-8E0E-4DD4-B2C3-BC3B1DBE5F30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CC3760-DF5F-4C04-BC84-43C6EDEA1A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2617DF7-1B77-41A4-B671-4DBB45BE3CC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{C2617DF7-1B77-41A4-B671-4DBB45BE3CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>마켓컬리 카테고리 분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -472,103 +470,6 @@
   </si>
   <si>
     <t>반려동물 용품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>012008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>032001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>032002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>032003</t>
-  </si>
-  <si>
-    <t>032004</t>
-  </si>
-  <si>
-    <t>032005</t>
-  </si>
-  <si>
-    <t>032006</t>
-  </si>
-  <si>
-    <t>012009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>012010</t>
-  </si>
-  <si>
-    <t>012011</t>
-  </si>
-  <si>
-    <t>012012</t>
-  </si>
-  <si>
-    <t>916006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>916007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>916008</t>
-  </si>
-  <si>
-    <t>916009</t>
-  </si>
-  <si>
-    <t>916010</t>
-  </si>
-  <si>
-    <t>916011</t>
-  </si>
-  <si>
-    <t>085002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>085001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>919015</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>919011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>919012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>919013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>919008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>919009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>919014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>919010</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,14 +567,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,14 +594,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1007,912 +914,912 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF530A1-C67E-4DF2-8A23-8587F7E0D941}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.796875" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.4140625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>907001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>907002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>907003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>907004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>907005</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>907006</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>907007</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>908001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>908002</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>908003</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>908004</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>908005</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>909001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="12"/>
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>909002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="12"/>
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>909003</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="12"/>
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>909004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="12"/>
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>909005</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="12"/>
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>909006</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="12"/>
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>909007</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <v>910001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="5">
         <v>910002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="5">
         <v>910003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="5">
         <v>910004</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="5">
         <v>910005</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="5">
         <v>910006</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>911001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="9"/>
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>911002</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="9"/>
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>911003</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="9"/>
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>911004</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>911005</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="9"/>
+      <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>911006</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="5">
         <v>912001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="10"/>
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="8"/>
+      <c r="B34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="5">
         <v>912002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="8"/>
+      <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="5">
         <v>912003</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="8"/>
+      <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="5">
         <v>912004</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="8" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="8"/>
+      <c r="B37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="5">
         <v>912005</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="10"/>
-      <c r="B38" s="8" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="8"/>
+      <c r="B38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="5">
         <v>912006</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>913001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="9"/>
+      <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>913002</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="9"/>
+      <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>913003</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="9"/>
+      <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>913004</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="9"/>
+      <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>913005</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="9"/>
+      <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>913006</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="5">
         <v>914001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="10"/>
-      <c r="B46" s="8" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="8"/>
+      <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="5">
         <v>914002</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="10"/>
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="8"/>
+      <c r="B47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="5">
         <v>914003</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="10"/>
-      <c r="B48" s="8" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="8"/>
+      <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="5">
         <v>914004</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="10"/>
-      <c r="B49" s="8" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="8"/>
+      <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="5">
         <v>914005</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="10"/>
-      <c r="B50" s="8" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="8"/>
+      <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="5">
         <v>914006</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" s="10"/>
-      <c r="B51" s="8" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="8"/>
+      <c r="B51" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="5">
         <v>914007</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>915001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="9"/>
+      <c r="B53" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>915002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="9"/>
+      <c r="B54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>915003</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="9"/>
+      <c r="B55" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>915004</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="9"/>
+      <c r="B56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>915005</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="9"/>
+      <c r="B57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>915006</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" s="10"/>
-      <c r="B59" s="8" t="s">
+      <c r="C58" s="6">
+        <v>32001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="8"/>
+      <c r="B59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" s="10"/>
-      <c r="B60" s="8" t="s">
+      <c r="C59" s="6">
+        <v>32002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="8"/>
+      <c r="B60" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="8" t="s">
+      <c r="C60" s="6">
+        <v>32003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="8"/>
+      <c r="B61" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" s="10"/>
-      <c r="B62" s="8" t="s">
+      <c r="C61" s="6">
+        <v>32004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="8"/>
+      <c r="B62" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" s="10"/>
-      <c r="B63" s="8" t="s">
+      <c r="C62" s="6">
+        <v>32005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="8"/>
+      <c r="B63" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
+      <c r="C63" s="6">
+        <v>32006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>918007</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="9"/>
+      <c r="B65" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>918008</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="9"/>
+      <c r="B66" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>918009</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="9"/>
+      <c r="B67" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>918010</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="9"/>
+      <c r="B68" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>918011</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" s="10"/>
-      <c r="B70" s="8" t="s">
+      <c r="C69" s="6">
+        <v>12008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="8"/>
+      <c r="B70" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71" s="10"/>
-      <c r="B71" s="8" t="s">
+      <c r="C70" s="6">
+        <v>12009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="8"/>
+      <c r="B71" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72" s="10"/>
-      <c r="B72" s="8" t="s">
+      <c r="C71" s="6">
+        <v>12010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="8"/>
+      <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A73" s="10"/>
-      <c r="B73" s="8" t="s">
+      <c r="C72" s="6">
+        <v>12011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="8"/>
+      <c r="B73" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" s="2" t="s">
+      <c r="C73" s="6">
+        <v>12012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3" t="s">
+      <c r="C74" s="7">
+        <v>916006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="9"/>
+      <c r="B75" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3" t="s">
+      <c r="C75" s="7">
+        <v>916007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="9"/>
+      <c r="B76" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77" s="2"/>
-      <c r="B77" s="3" t="s">
+      <c r="C76" s="7">
+        <v>916008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="9"/>
+      <c r="B77" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3" t="s">
+      <c r="C77" s="7">
+        <v>916009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="9"/>
+      <c r="B78" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3" t="s">
+      <c r="C78" s="7">
+        <v>916010</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="9"/>
+      <c r="B79" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80" s="10" t="s">
+      <c r="C79" s="7">
+        <v>916011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81" s="10"/>
-      <c r="B81" s="8" t="s">
+      <c r="C80" s="6">
+        <v>85002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="8"/>
+      <c r="B81" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" s="2" t="s">
+      <c r="C81" s="6">
+        <v>85001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83" s="2"/>
-      <c r="B83" s="3" t="s">
+      <c r="C82" s="7">
+        <v>919011</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="9"/>
+      <c r="B83" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3" t="s">
+      <c r="C83" s="7">
+        <v>919008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="9"/>
+      <c r="B84" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85" s="2"/>
-      <c r="B85" s="3" t="s">
+      <c r="C84" s="7">
+        <v>919013</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="9"/>
+      <c r="B85" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3" t="s">
+      <c r="C85" s="7">
+        <v>919012</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="9"/>
+      <c r="B86" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87" s="2"/>
-      <c r="B87" s="3" t="s">
+      <c r="C86" s="7">
+        <v>919009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="9"/>
+      <c r="B87" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3" t="s">
+      <c r="C87" s="7">
+        <v>919014</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="9"/>
+      <c r="B88" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3" t="s">
+      <c r="C88" s="7">
+        <v>919010</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="9"/>
+      <c r="B89" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90" s="10" t="s">
+      <c r="C89" s="7">
+        <v>919015</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="5">
         <v>991001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91" s="10"/>
-      <c r="B91" s="8" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="8"/>
+      <c r="B91" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="5">
         <v>991002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92" s="10"/>
-      <c r="B92" s="8" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="8"/>
+      <c r="B92" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="5">
         <v>991003</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93" s="10"/>
-      <c r="B93" s="8" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="8"/>
+      <c r="B93" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="5">
         <v>991004</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94" s="10"/>
-      <c r="B94" s="8" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="8"/>
+      <c r="B94" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="5">
         <v>991005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="A90:A94"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A52:A57"/>
     <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
